--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.172093</v>
+        <v>0.01675466666666667</v>
       </c>
       <c r="H2">
-        <v>21.516279</v>
+        <v>0.050264</v>
       </c>
       <c r="I2">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="J2">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>839.454490980359</v>
+        <v>1.291609266942222</v>
       </c>
       <c r="R2">
-        <v>7555.090418823232</v>
+        <v>11.62448340248</v>
       </c>
       <c r="S2">
-        <v>0.02387741125917979</v>
+        <v>4.458856210529468E-05</v>
       </c>
       <c r="T2">
-        <v>0.02387741125917979</v>
+        <v>4.458856210529467E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.172093</v>
+        <v>0.01675466666666667</v>
       </c>
       <c r="H3">
-        <v>21.516279</v>
+        <v>0.050264</v>
       </c>
       <c r="I3">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="J3">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>728.5414746981387</v>
+        <v>1.701939665507556</v>
       </c>
       <c r="R3">
-        <v>6556.873272283248</v>
+        <v>15.317456989568</v>
       </c>
       <c r="S3">
-        <v>0.02072260568934618</v>
+        <v>5.875386962390287E-05</v>
       </c>
       <c r="T3">
-        <v>0.02072260568934618</v>
+        <v>5.875386962390286E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.172093</v>
+        <v>0.01675466666666667</v>
       </c>
       <c r="H4">
-        <v>21.516279</v>
+        <v>0.050264</v>
       </c>
       <c r="I4">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="J4">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>1018.629341590075</v>
+        <v>2.379611513016889</v>
       </c>
       <c r="R4">
-        <v>9167.664074310673</v>
+        <v>21.416503617152</v>
       </c>
       <c r="S4">
-        <v>0.02897385381953103</v>
+        <v>8.214826143654025E-05</v>
       </c>
       <c r="T4">
-        <v>0.02897385381953103</v>
+        <v>8.214826143654024E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>269.188431</v>
       </c>
       <c r="I5">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206305</v>
       </c>
       <c r="J5">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206304</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>10502.34742368355</v>
+        <v>6917.202610879296</v>
       </c>
       <c r="R5">
-        <v>94521.12681315195</v>
+        <v>62254.82349791367</v>
       </c>
       <c r="S5">
-        <v>0.2987283662384347</v>
+        <v>0.2387936708911015</v>
       </c>
       <c r="T5">
-        <v>0.2987283662384347</v>
+        <v>0.2387936708911015</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>269.188431</v>
       </c>
       <c r="I6">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206305</v>
       </c>
       <c r="J6">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206304</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>9114.723623560474</v>
@@ -818,10 +818,10 @@
         <v>82032.51261204427</v>
       </c>
       <c r="S6">
-        <v>0.2592588482305315</v>
+        <v>0.3146558566615664</v>
       </c>
       <c r="T6">
-        <v>0.2592588482305314</v>
+        <v>0.3146558566615663</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>269.188431</v>
       </c>
       <c r="I7">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206305</v>
       </c>
       <c r="J7">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206304</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>12743.98952686918</v>
@@ -880,10 +880,10 @@
         <v>114695.9057418226</v>
       </c>
       <c r="S7">
-        <v>0.3624895480163143</v>
+        <v>0.4399443260679626</v>
       </c>
       <c r="T7">
-        <v>0.3624895480163143</v>
+        <v>0.4399443260679626</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5799533333333333</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H8">
         <v>1.73986</v>
       </c>
       <c r="I8">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203657</v>
       </c>
       <c r="J8">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203655</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>67.88038446039333</v>
+        <v>44.70832602224445</v>
       </c>
       <c r="R8">
-        <v>610.92346014354</v>
+        <v>402.3749342002001</v>
       </c>
       <c r="S8">
-        <v>0.001930787045166897</v>
+        <v>0.001543407919475529</v>
       </c>
       <c r="T8">
-        <v>0.001930787045166897</v>
+        <v>0.001543407919475529</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5799533333333333</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H9">
         <v>1.73986</v>
       </c>
       <c r="I9">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203657</v>
       </c>
       <c r="J9">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203655</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
-        <v>58.91168125159111</v>
+        <v>58.91168125159113</v>
       </c>
       <c r="R9">
-        <v>530.20513126432</v>
+        <v>530.2051312643201</v>
       </c>
       <c r="S9">
-        <v>0.001675681595998353</v>
+        <v>0.002033732046869403</v>
       </c>
       <c r="T9">
-        <v>0.001675681595998352</v>
+        <v>0.002033732046869402</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5799533333333333</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H10">
         <v>1.73986</v>
       </c>
       <c r="I10">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203657</v>
       </c>
       <c r="J10">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203655</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
-        <v>82.36890989649778</v>
+        <v>82.3689098964978</v>
       </c>
       <c r="R10">
-        <v>741.32018906848</v>
+        <v>741.3201890684801</v>
       </c>
       <c r="S10">
-        <v>0.002342898105497203</v>
+        <v>0.002843515719858725</v>
       </c>
       <c r="T10">
-        <v>0.002342898105497203</v>
+        <v>0.002843515719858724</v>
       </c>
     </row>
   </sheetData>
